--- a/db.xlsx
+++ b/db.xlsx
@@ -3,21 +3,22 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="12852" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Friction" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -48,12 +49,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -136,8 +138,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Information" displayName="Information" ref="A1:U2" headerRowCount="1" insertRow="1" headerRowDxfId="0">
-  <autoFilter ref="A1:U2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Information" displayName="Information" ref="A1:U6" headerRowCount="1" headerRowDxfId="0">
+  <autoFilter ref="A1:U5"/>
   <tableColumns count="21">
     <tableColumn id="1" name="key" totalsRowLabel="Total"/>
     <tableColumn id="2" name="date"/>
@@ -450,24 +452,27 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U3"/>
+  <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="10.7109375" customWidth="1" min="1" max="4"/>
-    <col width="12.5703125" customWidth="1" min="5" max="5"/>
-    <col width="10.7109375" customWidth="1" min="6" max="6"/>
+    <col width="19.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="18.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.85546875" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="10.7109375" customWidth="1" min="4" max="4"/>
+    <col width="10.85546875" customWidth="1" min="5" max="5"/>
+    <col width="12.140625" bestFit="1" customWidth="1" min="6" max="6"/>
     <col width="12.85546875" customWidth="1" min="7" max="7"/>
     <col width="16" customWidth="1" min="8" max="8"/>
     <col width="10.7109375" customWidth="1" min="9" max="12"/>
     <col width="13" customWidth="1" min="13" max="13"/>
     <col width="10.7109375" customWidth="1" min="14" max="15"/>
     <col width="15.85546875" customWidth="1" min="16" max="16"/>
-    <col width="10.7109375" customWidth="1" min="17" max="17"/>
+    <col width="12.7109375" bestFit="1" customWidth="1" min="17" max="17"/>
     <col width="11.140625" customWidth="1" min="18" max="18"/>
     <col width="14.85546875" customWidth="1" min="19" max="19"/>
     <col width="12.28515625" customWidth="1" min="20" max="20"/>
@@ -582,14 +587,101 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2303251814EQS05L3</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>45010.76033564815</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>EQS</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>05-23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>66</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ICAO</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>SFT0148</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2200</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>ASFT</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>ASTM</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="U2" t="n">
+        <v>2474.58</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2205201224AEP31L3</t>
+          <t>2206031554AEP31L3</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>44701.51719907407</v>
+        <v>44715.66267361111</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -614,16 +706,14 @@
           <t>31</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+      <c r="H3" t="n">
+        <v>65</v>
       </c>
       <c r="I3" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="J3" t="n">
-        <v>0.66</v>
+        <v>0.79</v>
       </c>
       <c r="K3" t="n">
         <v>0.67</v>
@@ -643,15 +733,11 @@
           <t>SUPER</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>1800</t>
-        </is>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1800</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -663,20 +749,277 @@
           <t>ASTM</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2.1</t>
-        </is>
+      <c r="S3" t="n">
+        <v>2.1</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
           <t>ON</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>1517.73</t>
-        </is>
+      <c r="U3" t="n">
+        <v>1546.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2304181153EZE17L5</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>45034.49521990741</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>EZE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>5</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>17-35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>66</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>ICAO</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>SFT0148</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2800</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>ASFT</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>ASTM</t>
+        </is>
+      </c>
+      <c r="S4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="U4" t="n">
+        <v>2564.58</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2303101217RGL07R5</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>44995.51201388889</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>RGL</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>5</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>07-25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>66</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>ICAO</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>SFT0148</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3300</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>ASFT</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>ASTM</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="U5" t="n">
+        <v>2405.18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2205201254AEP13L3</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>44701.53795138889</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>13-31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ICAO</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>SFT0148</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>SUPER</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1800</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>ASFT</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>ASTM</t>
+        </is>
+      </c>
+      <c r="S6" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="U6" t="n">
+        <v>1521.33</v>
       </c>
     </row>
   </sheetData>

--- a/db.xlsx
+++ b/db.xlsx
@@ -32148,7 +32148,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q7"/>
+  <dimension ref="A1:V7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32242,6 +32242,31 @@
           <t>system distance</t>
         </is>
       </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>operator</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>temperature</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>surface condition</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>weather</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>runway material</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -32311,6 +32336,31 @@
       <c r="Q2" t="n">
         <v>2474.58</v>
       </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -32380,6 +32430,31 @@
       <c r="Q3" t="n">
         <v>2478.98</v>
       </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -32449,6 +32524,31 @@
       <c r="Q4" t="n">
         <v>2483.38</v>
       </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -32518,6 +32618,31 @@
       <c r="Q5" t="n">
         <v>2485.58</v>
       </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -32587,6 +32712,31 @@
       <c r="Q6" t="n">
         <v>2476.78</v>
       </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -32655,6 +32805,31 @@
       </c>
       <c r="Q7" t="n">
         <v>2481.18</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>Demassi / Buzzi</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Seco</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Bueno</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Asfalto</t>
+        </is>
       </c>
     </row>
   </sheetData>
